--- a/Photon_Dev/Projects/Sleeptrack_Breakout/Documents/BOM/BOM_TH.xlsx
+++ b/Photon_Dev/Projects/Sleeptrack_Breakout/Documents/BOM/BOM_TH.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Part</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Circuit</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -59,36 +57,15 @@
     <t>1.0UF-16V-10%(0603)</t>
   </si>
   <si>
-    <t>Battery Shield</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>Schottky Power Rectifier, Surface Mount, 1.0 A, 40 V</t>
   </si>
   <si>
-    <t>Ceramic, Throughhole</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>Throughhole</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/tdk-corporation/FK18X5R0J475K/445-8400-ND/2815330</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/tdk-corporation/FK18X7R1C105K/445-8417-ND/2815347</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/on-semiconductor/MBR150G/MBR150GOS-ND/1477164</t>
   </si>
   <si>
@@ -98,32 +75,125 @@
     <t>C4</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/vishay-bc-components/S220K25SL0N63L6R/1270PH-ND/2356806</t>
-  </si>
-  <si>
-    <t>Adafruit BNO055</t>
-  </si>
-  <si>
-    <t>.10uF</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>22pF ±10% 1000V (1kV) SL Ceramic Capacitor -55°C ~ 125°C Through Hole Radial, Disc 0.256" Dia (6.50mm)</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/vishay-bc-components/K104K15X7RF5TL2/BC1084CT-ND/286706</t>
-  </si>
-  <si>
-    <t>0.10µF ±10% 50V X7R Ceramic Capacitor -55°C ~ 125°C Through Hole Radial 0.157" L x 0.098" W (4.00mm x 2.50mm)</t>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>0.1UF-25V(+80/-20%)(0603)</t>
+  </si>
+  <si>
+    <t>RED(0603)</t>
+  </si>
+  <si>
+    <t>32.768kHz Crystal</t>
+  </si>
+  <si>
+    <t>BNO055</t>
+  </si>
+  <si>
+    <t>Photon</t>
+  </si>
+  <si>
+    <t>MAX17043</t>
+  </si>
+  <si>
+    <t>MCP73831</t>
+  </si>
+  <si>
+    <t>SS12SDH2</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>330R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +207,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,11 +252,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,8 +292,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,20 +577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,58 +599,35 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -561,138 +635,232 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>